--- a/input_data/data_errors_14/valores.xlsx
+++ b/input_data/data_errors_14/valores.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">5-2030-P</t>
   </si>
   <si>
-    <t xml:space="preserve">5-2050-P</t>
+    <t xml:space="preserve">:5-2050-P</t>
   </si>
   <si>
     <t xml:space="preserve">6-2015</t>
@@ -464,7 +464,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="Q22" activeCellId="0" sqref="Q22"/>
+      <selection pane="bottomLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
